--- a/dezhou/deZhouRecord.xlsx
+++ b/dezhou/deZhouRecord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="暴击场1w" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="7">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -467,23 +467,64 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20170530</v>
+      </c>
+      <c r="B23">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -496,10 +537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,6 +775,10 @@
       <c r="A46" t="s">
         <v>4</v>
       </c>
+      <c r="B46">
+        <f>SUM(B23:B42)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
@@ -742,6 +787,67 @@
       <c r="B47">
         <f>(B44*100/(B44+B45))</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>20170530</v>
+      </c>
+      <c r="B50">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B51">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dezhou/deZhouRecord.xlsx
+++ b/dezhou/deZhouRecord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="暴击场1w" sheetId="3" r:id="rId1"/>
@@ -396,15 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,29 +415,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20170604</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <f>COUNTIF(B1:B13,"&gt;0")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <f>COUNTIF(B1:B13,"&lt;0")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <f>SUM(B2:B13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
+      </c>
+      <c r="B20">
+        <f>100*B17/(B17+B18)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="b">
+        <f>暴击场1w!B19=SUM(B23:B42)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -442,16 +531,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20170529</v>
       </c>
@@ -467,27 +556,27 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -495,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20170530</v>
       </c>
@@ -503,27 +592,27 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>-5</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -539,16 +628,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20170528</v>
       </c>
@@ -564,52 +653,52 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>-20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>-20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>-20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -617,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -625,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -634,7 +723,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -642,7 +731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -650,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20170529</v>
       </c>
@@ -658,102 +747,102 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>-20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>-20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>-20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>-20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>-20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>-20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>-20</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>-20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>-20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>-20</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>-20</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>-20</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>-20</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -762,7 +851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -771,7 +860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -780,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -789,7 +878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -797,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20170530</v>
       </c>
@@ -805,47 +894,47 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>-20</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>-20</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>-20</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>-20</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -865,12 +954,12 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20170528</v>
       </c>
@@ -886,7 +975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -894,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -902,17 +991,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -920,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20170529</v>
       </c>
@@ -928,22 +1017,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>-80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>-80</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>-80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -951,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -959,12 +1048,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -983,12 +1072,12 @@
       <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,22 +1085,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1030,9 +1119,9 @@
       <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,22 +1129,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
